--- a/GestorReceitas/Setembro/transferencias.xlsx
+++ b/GestorReceitas/Setembro/transferencias.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pessoal\AssociacaodePais\School\GestorReceitas\Setembro\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E1B149-9DD6-4663-9274-ACD0761D30F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ConsultaSaldosMovimentos" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="ConsultaSaldosMovimentos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -20,287 +36,261 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="83">
-  <si>
-    <t xml:space="preserve">Conta:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">512003140003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moeda:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contabilístico:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cativo:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disponível:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Operação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Valor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descrição</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Débito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crédito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saldo Controlo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cód. Aplicação Emissora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cód. Indicador da Transação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descrição Balcão</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF MBWAY DE  MARCO ALMEIDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S0001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF MBWAY DE FILIPE FERREIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF MBWAY DE CARLA ANDREIA CUNHA L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF CRED SEPA+ DE DANIELA SOFIA SILVA BARBOSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B0139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF MBWAY DE CRISTIANA SOUSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF MB DE ANA SOUSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B0159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF CRED SEPA+ DE DIOGO ANDRE FARIA PEREIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF MBWAY DE  SARA ROCHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF MBWAY DE HORACIO MONTEIRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF MBWAY DE VALERIE OLIVEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF MBWAY DE RUTE ALMEIDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF CRED SEPA+ DE ALFREDO JOS  ALVES LOPES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF MBWAY DE HELDER MARTINS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF MB DE  CARLOS PEREIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF CRED SEPA+ DE TANIA CARVALHO DIAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF CRED SEPA+ DE ALEXANDRA MARINA M FERRREIRA LOPES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF MBWAY DE SARAH FERREIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF MBWAY DE  PATRICIA MONTEIRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF CRED SEPA+ DE SANDRA CRISTINA SILVA GONCALVES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF MBWAY DE CLAUDIA MAIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF MB DE  EDITE OLIVEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF MBWAY DE  JAIME SOUSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF MBWAY DE ANA VIAGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF CRED SEPA+ DE CANDIDO TIAGO ALVES DOS SANTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF CRED SEPA+ DE RICARDO FILIPE DA ROCHA TEIXEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF CRED SEPA+ DE JOSUE FILIPE BRAS DOS SANTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF CRED SEPA+ DE JOAQUIM DA FONSECA MAIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF CRED SEPA+ DE LORENA CRISTINY LEBBER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF CRED SEPA+ DE FABIO DANIEL FERREIRA DA COSTA LIMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF CRED SEPA+ DE ANTONIO JOSE COSTA SOUSA AMORIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF CRED SEPA+ DE MARTA SOFIA PEIXOTO MAIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF CRED SEPA+ DE FRANKLIN COSTA CARVALHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF CRED SEPA+ DE KATHY CRISTINA MADRID RODRIGUEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF CRED SEPA+ DE MARCO JORGE DE SA MOREIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF CRED SEPA+ DE ACACIO VITOR ROCHA INACIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF MB DE   VITOR MARQUES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF CRED SEPA+ DE EURICO SAMUEL GONAALVES CASTELEIRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF MBWAY DE ANDREIA S C SILVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF MBWAY DE BEATRIZ PEREIRA JOSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF MBWAY DE  PATRICIA SEGURA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF MB DE  CRISTIANA SILVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF MB DE  M FATIMA MOREIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF CRED SEPA+ DE TIAGO ANDRE SILVA MOREIRA CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF CRED SEPA+ DE CATIA LILIANA SAMPAIO MONTEIRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF MBWAY DE  VANIA BATALHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF MBWAY DE RUI MIGUEL FERREIRA PILOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF CRED SEPA+ DE HELGA ANDREIA MAIA FARIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF CRED SEPA+ DE BELARMINO JOSE ROSA SANTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF CRED INTRAB DE SONIA SOFIA MARTINS DA SILVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B0458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANAIS DIRECTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF MBWAY DE PAULA AZEVEDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF MBWAY DE MARCIA TEIXEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF CRED SEPA+ DE ANA CATARINA VIEIRA VAZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRF MBWAY DE   HELENA GOMES</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="80">
+  <si>
+    <t>Conta:</t>
+  </si>
+  <si>
+    <t>512003140003</t>
+  </si>
+  <si>
+    <t>Moeda:</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>Data:</t>
+  </si>
+  <si>
+    <t>Contabilístico:</t>
+  </si>
+  <si>
+    <t>Cativo:</t>
+  </si>
+  <si>
+    <t>Disponível:</t>
+  </si>
+  <si>
+    <t>Data Operação</t>
+  </si>
+  <si>
+    <t>Data Valor</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Débito</t>
+  </si>
+  <si>
+    <t>Crédito</t>
+  </si>
+  <si>
+    <t>Saldo Controlo</t>
+  </si>
+  <si>
+    <t>Cód. Aplicação Emissora</t>
+  </si>
+  <si>
+    <t>Cód. Indicador da Transação</t>
+  </si>
+  <si>
+    <t>Descrição Balcão</t>
+  </si>
+  <si>
+    <t>TRF</t>
+  </si>
+  <si>
+    <t>TRF MBWAY DE  MARCO ALMEIDA</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>S00</t>
+  </si>
+  <si>
+    <t>S0001</t>
+  </si>
+  <si>
+    <t>TRF MBWAY DE FILIPE FERREIRA</t>
+  </si>
+  <si>
+    <t>TRF MBWAY DE CARLA ANDREIA CUNHA L</t>
+  </si>
+  <si>
+    <t>CRD</t>
+  </si>
+  <si>
+    <t>TRF CRED SEPA+ DE DANIELA SOFIA SILVA BARBOSA</t>
+  </si>
+  <si>
+    <t>C49</t>
+  </si>
+  <si>
+    <t>B0139</t>
+  </si>
+  <si>
+    <t>TRF MBWAY DE CRISTIANA SOUSA</t>
+  </si>
+  <si>
+    <t>TRF MB DE ANA SOUSA</t>
+  </si>
+  <si>
+    <t>C29</t>
+  </si>
+  <si>
+    <t>B0159</t>
+  </si>
+  <si>
+    <t>TRF CRED SEPA+ DE DIOGO ANDRE FARIA PEREIRA</t>
+  </si>
+  <si>
+    <t>TRF MBWAY DE  SARA ROCHA</t>
+  </si>
+  <si>
+    <t>TRF MBWAY DE HORACIO MONTEIRO</t>
+  </si>
+  <si>
+    <t>TRF MBWAY DE VALERIE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>TRF MBWAY DE RUTE ALMEIDA</t>
+  </si>
+  <si>
+    <t>TRF CRED SEPA+ DE ALFREDO JOS  ALVES LOPES</t>
+  </si>
+  <si>
+    <t>TRF MBWAY DE HELDER MARTINS</t>
+  </si>
+  <si>
+    <t>TRF MB DE  CARLOS PEREIRA</t>
+  </si>
+  <si>
+    <t>TRF CRED SEPA+ DE TANIA CARVALHO DIAS</t>
+  </si>
+  <si>
+    <t>TRF CRED SEPA+ DE ALEXANDRA MARINA M FERRREIRA LOPES</t>
+  </si>
+  <si>
+    <t>TRF MBWAY DE SARAH FERREIRA</t>
+  </si>
+  <si>
+    <t>TRF MBWAY DE  PATRICIA MONTEIRO</t>
+  </si>
+  <si>
+    <t>TRF CRED SEPA+ DE SANDRA CRISTINA SILVA GONCALVES</t>
+  </si>
+  <si>
+    <t>TRF MBWAY DE CLAUDIA MAIA</t>
+  </si>
+  <si>
+    <t>TRF MB DE  EDITE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>TRF MBWAY DE  JAIME SOUSA</t>
+  </si>
+  <si>
+    <t>TRF MBWAY DE ANA VIAGE</t>
+  </si>
+  <si>
+    <t>TRF CRED SEPA+ DE CANDIDO TIAGO ALVES DOS SANTOS</t>
+  </si>
+  <si>
+    <t>TRF CRED SEPA+ DE RICARDO FILIPE DA ROCHA TEIXEIRA</t>
+  </si>
+  <si>
+    <t>TRF CRED SEPA+ DE JOSUE FILIPE BRAS DOS SANTOS</t>
+  </si>
+  <si>
+    <t>TRF CRED SEPA+ DE JOAQUIM DA FONSECA MAIA</t>
+  </si>
+  <si>
+    <t>TRF CRED SEPA+ DE LORENA CRISTINY LEBBER</t>
+  </si>
+  <si>
+    <t>TRF CRED SEPA+ DE FABIO DANIEL FERREIRA DA COSTA LIMA</t>
+  </si>
+  <si>
+    <t>TRF CRED SEPA+ DE ANTONIO JOSE COSTA SOUSA AMORIM</t>
+  </si>
+  <si>
+    <t>TRF CRED SEPA+ DE MARTA SOFIA PEIXOTO MAIA</t>
+  </si>
+  <si>
+    <t>TRF CRED SEPA+ DE FRANKLIN COSTA CARVALHO</t>
+  </si>
+  <si>
+    <t>TRF CRED SEPA+ DE KATHY CRISTINA MADRID RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>TRF CRED SEPA+ DE MARCO JORGE DE SA MOREIRA</t>
+  </si>
+  <si>
+    <t>TRF CRED SEPA+ DE ACACIO VITOR ROCHA INACIO</t>
+  </si>
+  <si>
+    <t>TRF MB DE   VITOR MARQUES</t>
+  </si>
+  <si>
+    <t>TRF CRED SEPA+ DE EURICO SAMUEL GONAALVES CASTELEIRO</t>
+  </si>
+  <si>
+    <t>TRF MBWAY DE ANDREIA S C SILVA</t>
+  </si>
+  <si>
+    <t>TRF MBWAY DE BEATRIZ PEREIRA JOSE</t>
+  </si>
+  <si>
+    <t>TRF MBWAY DE  PATRICIA SEGURA</t>
+  </si>
+  <si>
+    <t>TRF MB DE  CRISTIANA SILVA</t>
+  </si>
+  <si>
+    <t>TRF MB DE  M FATIMA MOREIRA</t>
+  </si>
+  <si>
+    <t>TRF CRED SEPA+ DE TIAGO ANDRE SILVA MOREIRA CS</t>
+  </si>
+  <si>
+    <t>TRF CRED SEPA+ DE CATIA LILIANA SAMPAIO MONTEIRO</t>
+  </si>
+  <si>
+    <t>TRF MBWAY DE  VANIA BATALHA</t>
+  </si>
+  <si>
+    <t>TRF MBWAY DE RUI MIGUEL FERREIRA PILOTO</t>
+  </si>
+  <si>
+    <t>TRF CRED SEPA+ DE HELGA ANDREIA MAIA FARIA</t>
+  </si>
+  <si>
+    <t>TRF CRED SEPA+ DE BELARMINO JOSE ROSA SANTOS</t>
+  </si>
+  <si>
+    <t>TRF CRED INTRAB DE SONIA SOFIA MARTINS DA SILVA</t>
+  </si>
+  <si>
+    <t>B00</t>
+  </si>
+  <si>
+    <t>B0458</t>
+  </si>
+  <si>
+    <t>CANAIS DIRECTOS</t>
+  </si>
+  <si>
+    <t>TRF MBWAY DE PAULA AZEVEDO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$-409]dd\-mm\-yyyy\ hh:mm"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="[$-409]dd\-mm\-yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-409]dd\-mm\-yyyy\ hh:mm"/>
+    <numFmt numFmtId="165" formatCode="[$-409]dd\-mm\-yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -309,7 +299,7 @@
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -325,154 +315,427 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A85" activeCellId="0" sqref="74:85"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="14.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="54.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="14.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="25.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.41"/>
+    <col min="1" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="54" customWidth="1"/>
+    <col min="5" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>45579.9479166667</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="B3" s="1">
+        <v>45579.947916666701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>1954.79</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>1954.79</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -504,26 +767,26 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>45565</v>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="4">
         <v>45565</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="2">
         <v>47.5</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="2">
         <v>2095.17</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -534,26 +797,26 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>45565</v>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="4">
         <v>45565</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="2">
         <v>15</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="2">
         <v>2047.67</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -564,26 +827,26 @@
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>45565</v>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="4">
         <v>45565</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="2">
         <v>43.75</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G12" s="2">
         <v>2032.67</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -594,26 +857,26 @@
       </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>45565</v>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="4">
         <v>45565</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="0" t="s">
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="F13" s="2">
         <v>140</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G13" s="2">
         <v>1988.92</v>
       </c>
       <c r="H13" s="2" t="s">
@@ -624,26 +887,26 @@
       </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>45565</v>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="4">
         <v>45565</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" s="2">
         <v>50</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="G14" s="2">
         <v>1848.92</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -654,26 +917,26 @@
       </c>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
         <v>45565</v>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="4">
         <v>45565</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="0" t="s">
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="F15" s="2">
         <v>45</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="G15" s="2">
         <v>1798.92</v>
       </c>
       <c r="H15" s="2" t="s">
@@ -684,26 +947,26 @@
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <v>45565</v>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="4">
         <v>45565</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="0" t="s">
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="G16" s="2" t="n">
+      <c r="F16" s="2">
+        <v>25</v>
+      </c>
+      <c r="G16" s="2">
         <v>1753.92</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -714,26 +977,26 @@
       </c>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
         <v>45564</v>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="4">
         <v>45564</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="G17" s="2" t="n">
+      <c r="F17" s="2">
+        <v>25</v>
+      </c>
+      <c r="G17" s="2">
         <v>1728.92</v>
       </c>
       <c r="H17" s="2" t="s">
@@ -744,26 +1007,26 @@
       </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
         <v>45564</v>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="4">
         <v>45564</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="F18" s="2">
         <v>7.5</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="G18" s="2">
         <v>1703.92</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -774,26 +1037,26 @@
       </c>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
         <v>45563</v>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="4">
         <v>45563</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>36</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="2" t="n">
+      <c r="F19" s="2">
         <v>22</v>
       </c>
-      <c r="G19" s="2" t="n">
+      <c r="G19" s="2">
         <v>1838.22</v>
       </c>
       <c r="H19" s="2" t="s">
@@ -804,26 +1067,26 @@
       </c>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
         <v>45562</v>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="4">
         <v>45562</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>37</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="2" t="n">
+      <c r="F20" s="2">
         <v>15</v>
       </c>
-      <c r="G20" s="2" t="n">
+      <c r="G20" s="2">
         <v>1816.22</v>
       </c>
       <c r="H20" s="2" t="s">
@@ -834,26 +1097,26 @@
       </c>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="n">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
         <v>45562</v>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="4">
         <v>45562</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="0" t="s">
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="2" t="n">
+      <c r="F21" s="2">
         <v>245</v>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="G21" s="2">
         <v>1801.22</v>
       </c>
       <c r="H21" s="2" t="s">
@@ -864,26 +1127,26 @@
       </c>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
         <v>45562</v>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="4">
         <v>45562</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>39</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="2" t="n">
+      <c r="F22" s="2">
         <v>12.5</v>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="G22" s="2">
         <v>1556.22</v>
       </c>
       <c r="H22" s="2" t="s">
@@ -894,26 +1157,26 @@
       </c>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
         <v>45561</v>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="4">
         <v>45561</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="0" t="s">
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="G23" s="2" t="n">
+      <c r="F23" s="2">
+        <v>25</v>
+      </c>
+      <c r="G23" s="2">
         <v>1598.51</v>
       </c>
       <c r="H23" s="2" t="s">
@@ -924,26 +1187,26 @@
       </c>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
         <v>45561</v>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="4">
         <v>45561</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="0" t="s">
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>41</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="2" t="n">
+      <c r="F24" s="2">
         <v>32.5</v>
       </c>
-      <c r="G24" s="2" t="n">
+      <c r="G24" s="2">
         <v>1573.51</v>
       </c>
       <c r="H24" s="2" t="s">
@@ -954,26 +1217,26 @@
       </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="n">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
         <v>45559</v>
       </c>
-      <c r="B25" s="4" t="n">
+      <c r="B25" s="4">
         <v>45559</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="0" t="s">
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
         <v>42</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="2" t="n">
+      <c r="F25" s="2">
         <v>32.5</v>
       </c>
-      <c r="G25" s="2" t="n">
+      <c r="G25" s="2">
         <v>1952.65</v>
       </c>
       <c r="H25" s="2" t="s">
@@ -984,26 +1247,26 @@
       </c>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="n">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
         <v>45558</v>
       </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="4">
         <v>45558</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>43</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="2" t="n">
+      <c r="F26" s="2">
         <v>45</v>
       </c>
-      <c r="G26" s="2" t="n">
+      <c r="G26" s="2">
         <v>1920.15</v>
       </c>
       <c r="H26" s="2" t="s">
@@ -1014,26 +1277,26 @@
       </c>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
         <v>45558</v>
       </c>
-      <c r="B27" s="4" t="n">
+      <c r="B27" s="4">
         <v>45558</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>44</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="2" t="n">
+      <c r="F27" s="2">
         <v>57.5</v>
       </c>
-      <c r="G27" s="2" t="n">
+      <c r="G27" s="2">
         <v>1875.15</v>
       </c>
       <c r="H27" s="2" t="s">
@@ -1044,26 +1307,26 @@
       </c>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="n">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
         <v>45558</v>
       </c>
-      <c r="B28" s="4" t="n">
+      <c r="B28" s="4">
         <v>45558</v>
       </c>
-      <c r="C28" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="0" t="s">
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s">
         <v>45</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="2" t="n">
+      <c r="F28" s="2">
         <v>172.5</v>
       </c>
-      <c r="G28" s="2" t="n">
+      <c r="G28" s="2">
         <v>1817.65</v>
       </c>
       <c r="H28" s="2" t="s">
@@ -1074,26 +1337,26 @@
       </c>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="n">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
         <v>45555</v>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="4">
         <v>45555</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" t="s">
         <v>39</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="2" t="n">
+      <c r="F29" s="2">
         <v>150</v>
       </c>
-      <c r="G29" s="2" t="n">
+      <c r="G29" s="2">
         <v>2645.15</v>
       </c>
       <c r="H29" s="2" t="s">
@@ -1104,26 +1367,26 @@
       </c>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="n">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
         <v>45555</v>
       </c>
-      <c r="B30" s="4" t="n">
+      <c r="B30" s="4">
         <v>45555</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" t="s">
         <v>46</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="2" t="n">
+      <c r="F30" s="2">
         <v>32.5</v>
       </c>
-      <c r="G30" s="2" t="n">
+      <c r="G30" s="2">
         <v>2495.15</v>
       </c>
       <c r="H30" s="2" t="s">
@@ -1134,26 +1397,26 @@
       </c>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="n">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
         <v>45555</v>
       </c>
-      <c r="B31" s="4" t="n">
+      <c r="B31" s="4">
         <v>45555</v>
       </c>
-      <c r="C31" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="0" t="s">
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
         <v>47</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="2" t="n">
+      <c r="F31" s="2">
         <v>32.5</v>
       </c>
-      <c r="G31" s="2" t="n">
+      <c r="G31" s="2">
         <v>2462.65</v>
       </c>
       <c r="H31" s="2" t="s">
@@ -1164,26 +1427,26 @@
       </c>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="n">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
         <v>45554</v>
       </c>
-      <c r="B32" s="4" t="n">
+      <c r="B32" s="4">
         <v>45554</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" t="s">
         <v>48</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="2" t="n">
+      <c r="F32" s="2">
         <v>7.5</v>
       </c>
-      <c r="G32" s="2" t="n">
+      <c r="G32" s="2">
         <v>2430.15</v>
       </c>
       <c r="H32" s="2" t="s">
@@ -1194,26 +1457,26 @@
       </c>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="n">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
         <v>45554</v>
       </c>
-      <c r="B33" s="4" t="n">
+      <c r="B33" s="4">
         <v>45554</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" t="s">
         <v>49</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="2" t="n">
+      <c r="F33" s="2">
         <v>47.5</v>
       </c>
-      <c r="G33" s="2" t="n">
+      <c r="G33" s="2">
         <v>2422.65</v>
       </c>
       <c r="H33" s="2" t="s">
@@ -1224,26 +1487,26 @@
       </c>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="n">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
         <v>45554</v>
       </c>
-      <c r="B34" s="4" t="n">
+      <c r="B34" s="4">
         <v>45554</v>
       </c>
-      <c r="C34" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="0" t="s">
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" t="s">
         <v>50</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="G34" s="2" t="n">
+      <c r="F34" s="2">
+        <v>25</v>
+      </c>
+      <c r="G34" s="2">
         <v>2375.15</v>
       </c>
       <c r="H34" s="2" t="s">
@@ -1254,26 +1517,26 @@
       </c>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="n">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
         <v>45554</v>
       </c>
-      <c r="B35" s="4" t="n">
+      <c r="B35" s="4">
         <v>45554</v>
       </c>
-      <c r="C35" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="0" t="s">
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" t="s">
         <v>51</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="2" t="n">
+      <c r="F35" s="2">
         <v>47.5</v>
       </c>
-      <c r="G35" s="2" t="n">
+      <c r="G35" s="2">
         <v>2350.15</v>
       </c>
       <c r="H35" s="2" t="s">
@@ -1284,26 +1547,26 @@
       </c>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="n">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
         <v>45554</v>
       </c>
-      <c r="B36" s="4" t="n">
+      <c r="B36" s="4">
         <v>45554</v>
       </c>
-      <c r="C36" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="0" t="s">
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" t="s">
         <v>52</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="G36" s="2" t="n">
+      <c r="F36" s="2">
+        <v>25</v>
+      </c>
+      <c r="G36" s="2">
         <v>2302.65</v>
       </c>
       <c r="H36" s="2" t="s">
@@ -1314,26 +1577,26 @@
       </c>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="n">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
         <v>45554</v>
       </c>
-      <c r="B37" s="4" t="n">
+      <c r="B37" s="4">
         <v>45554</v>
       </c>
-      <c r="C37" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="0" t="s">
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s">
         <v>52</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="2" t="n">
+      <c r="F37" s="2">
         <v>32.5</v>
       </c>
-      <c r="G37" s="2" t="n">
+      <c r="G37" s="2">
         <v>2277.65</v>
       </c>
       <c r="H37" s="2" t="s">
@@ -1344,26 +1607,26 @@
       </c>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="n">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
         <v>45553</v>
       </c>
-      <c r="B38" s="4" t="n">
+      <c r="B38" s="4">
         <v>45553</v>
       </c>
-      <c r="C38" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="0" t="s">
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
         <v>53</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="2" t="n">
+      <c r="F38" s="2">
         <v>32.5</v>
       </c>
-      <c r="G38" s="2" t="n">
+      <c r="G38" s="2">
         <v>2425.17</v>
       </c>
       <c r="H38" s="2" t="s">
@@ -1374,26 +1637,26 @@
       </c>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="n">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
         <v>45553</v>
       </c>
-      <c r="B39" s="4" t="n">
+      <c r="B39" s="4">
         <v>45553</v>
       </c>
-      <c r="C39" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="0" t="s">
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s">
         <v>54</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="2" t="n">
+      <c r="F39" s="2">
         <v>7.5</v>
       </c>
-      <c r="G39" s="2" t="n">
+      <c r="G39" s="2">
         <v>2392.67</v>
       </c>
       <c r="H39" s="2" t="s">
@@ -1404,26 +1667,26 @@
       </c>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="n">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
         <v>45552</v>
       </c>
-      <c r="B40" s="4" t="n">
+      <c r="B40" s="4">
         <v>45552</v>
       </c>
-      <c r="C40" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="0" t="s">
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" t="s">
         <v>55</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="2" t="n">
+      <c r="F40" s="2">
         <v>32.5</v>
       </c>
-      <c r="G40" s="2" t="n">
+      <c r="G40" s="2">
         <v>2385.17</v>
       </c>
       <c r="H40" s="2" t="s">
@@ -1434,26 +1697,26 @@
       </c>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="n">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
         <v>45552</v>
       </c>
-      <c r="B41" s="4" t="n">
+      <c r="B41" s="4">
         <v>45552</v>
       </c>
-      <c r="C41" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" s="0" t="s">
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
         <v>56</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F41" s="2" t="n">
+      <c r="F41" s="2">
         <v>32.5</v>
       </c>
-      <c r="G41" s="2" t="n">
+      <c r="G41" s="2">
         <v>2352.67</v>
       </c>
       <c r="H41" s="2" t="s">
@@ -1464,26 +1727,26 @@
       </c>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="n">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
         <v>45552</v>
       </c>
-      <c r="B42" s="4" t="n">
+      <c r="B42" s="4">
         <v>45552</v>
       </c>
-      <c r="C42" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="0" t="s">
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" t="s">
         <v>57</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F42" s="2" t="n">
+      <c r="F42" s="2">
         <v>7.5</v>
       </c>
-      <c r="G42" s="2" t="n">
+      <c r="G42" s="2">
         <v>2320.17</v>
       </c>
       <c r="H42" s="2" t="s">
@@ -1494,26 +1757,26 @@
       </c>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="n">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
         <v>45552</v>
       </c>
-      <c r="B43" s="4" t="n">
+      <c r="B43" s="4">
         <v>45552</v>
       </c>
-      <c r="C43" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" s="0" t="s">
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" t="s">
         <v>58</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F43" s="2" t="n">
+      <c r="F43" s="2">
         <v>22.5</v>
       </c>
-      <c r="G43" s="2" t="n">
+      <c r="G43" s="2">
         <v>2312.67</v>
       </c>
       <c r="H43" s="2" t="s">
@@ -1524,26 +1787,26 @@
       </c>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="n">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
         <v>45552</v>
       </c>
-      <c r="B44" s="4" t="n">
+      <c r="B44" s="4">
         <v>45552</v>
       </c>
-      <c r="C44" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44" s="0" t="s">
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" t="s">
         <v>59</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F44" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="G44" s="2" t="n">
+      <c r="F44" s="2">
+        <v>25</v>
+      </c>
+      <c r="G44" s="2">
         <v>2290.17</v>
       </c>
       <c r="H44" s="2" t="s">
@@ -1554,26 +1817,26 @@
       </c>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="n">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
         <v>45552</v>
       </c>
-      <c r="B45" s="4" t="n">
+      <c r="B45" s="4">
         <v>45552</v>
       </c>
-      <c r="C45" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" s="0" t="s">
+      <c r="C45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" t="s">
         <v>59</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F45" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="G45" s="2" t="n">
+      <c r="F45" s="2">
+        <v>25</v>
+      </c>
+      <c r="G45" s="2">
         <v>2265.17</v>
       </c>
       <c r="H45" s="2" t="s">
@@ -1584,26 +1847,26 @@
       </c>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="n">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
         <v>45552</v>
       </c>
-      <c r="B46" s="4" t="n">
+      <c r="B46" s="4">
         <v>45552</v>
       </c>
-      <c r="C46" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D46" s="0" t="s">
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" t="s">
         <v>59</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F46" s="2" t="n">
+      <c r="F46" s="2">
         <v>7.5</v>
       </c>
-      <c r="G46" s="2" t="n">
+      <c r="G46" s="2">
         <v>2240.17</v>
       </c>
       <c r="H46" s="2" t="s">
@@ -1614,26 +1877,26 @@
       </c>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="n">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
         <v>45552</v>
       </c>
-      <c r="B47" s="4" t="n">
+      <c r="B47" s="4">
         <v>45552</v>
       </c>
-      <c r="C47" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D47" s="0" t="s">
+      <c r="C47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" t="s">
         <v>60</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F47" s="2" t="n">
+      <c r="F47" s="2">
         <v>69.5</v>
       </c>
-      <c r="G47" s="2" t="n">
+      <c r="G47" s="2">
         <v>2232.67</v>
       </c>
       <c r="H47" s="2" t="s">
@@ -1644,26 +1907,26 @@
       </c>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="n">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
         <v>45552</v>
       </c>
-      <c r="B48" s="4" t="n">
+      <c r="B48" s="4">
         <v>45552</v>
       </c>
-      <c r="C48" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" s="0" t="s">
+      <c r="C48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" t="s">
         <v>61</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F48" s="2" t="n">
+      <c r="F48" s="2">
         <v>47.5</v>
       </c>
-      <c r="G48" s="2" t="n">
+      <c r="G48" s="2">
         <v>2163.17</v>
       </c>
       <c r="H48" s="2" t="s">
@@ -1674,26 +1937,26 @@
       </c>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="n">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
         <v>45551</v>
       </c>
-      <c r="B49" s="4" t="n">
+      <c r="B49" s="4">
         <v>45551</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" t="s">
         <v>23</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F49" s="2" t="n">
+      <c r="F49" s="2">
         <v>7.5</v>
       </c>
-      <c r="G49" s="2" t="n">
+      <c r="G49" s="2">
         <v>2115.67</v>
       </c>
       <c r="H49" s="2" t="s">
@@ -1704,26 +1967,26 @@
       </c>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="n">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
         <v>45551</v>
       </c>
-      <c r="B50" s="4" t="n">
+      <c r="B50" s="4">
         <v>45551</v>
       </c>
-      <c r="C50" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D50" s="0" t="s">
+      <c r="C50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" t="s">
         <v>62</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F50" s="2" t="n">
+      <c r="F50" s="2">
         <v>95</v>
       </c>
-      <c r="G50" s="2" t="n">
+      <c r="G50" s="2">
         <v>2108.17</v>
       </c>
       <c r="H50" s="2" t="s">
@@ -1734,26 +1997,26 @@
       </c>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="n">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
         <v>45551</v>
       </c>
-      <c r="B51" s="4" t="n">
+      <c r="B51" s="4">
         <v>45551</v>
       </c>
-      <c r="C51" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D51" s="0" t="s">
+      <c r="C51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" t="s">
         <v>63</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F51" s="2" t="n">
+      <c r="F51" s="2">
         <v>15</v>
       </c>
-      <c r="G51" s="2" t="n">
+      <c r="G51" s="2">
         <v>2013.17</v>
       </c>
       <c r="H51" s="2" t="s">
@@ -1764,26 +2027,26 @@
       </c>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="n">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
         <v>45551</v>
       </c>
-      <c r="B52" s="4" t="n">
+      <c r="B52" s="4">
         <v>45551</v>
       </c>
-      <c r="C52" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D52" s="0" t="s">
+      <c r="C52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" t="s">
         <v>63</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F52" s="2" t="n">
+      <c r="F52" s="2">
         <v>50</v>
       </c>
-      <c r="G52" s="2" t="n">
+      <c r="G52" s="2">
         <v>1998.17</v>
       </c>
       <c r="H52" s="2" t="s">
@@ -1794,26 +2057,26 @@
       </c>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="n">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
         <v>45550</v>
       </c>
-      <c r="B53" s="4" t="n">
+      <c r="B53" s="4">
         <v>45550</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" t="s">
         <v>64</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F53" s="2" t="n">
+      <c r="F53" s="2">
         <v>52.5</v>
       </c>
-      <c r="G53" s="2" t="n">
+      <c r="G53" s="2">
         <v>1948.17</v>
       </c>
       <c r="H53" s="2" t="s">
@@ -1824,26 +2087,26 @@
       </c>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="n">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
         <v>45550</v>
       </c>
-      <c r="B54" s="4" t="n">
+      <c r="B54" s="4">
         <v>45550</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" t="s">
         <v>18</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" t="s">
         <v>65</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F54" s="2" t="n">
+      <c r="F54" s="2">
         <v>32.5</v>
       </c>
-      <c r="G54" s="2" t="n">
+      <c r="G54" s="2">
         <v>2895.67</v>
       </c>
       <c r="H54" s="2" t="s">
@@ -1854,26 +2117,26 @@
       </c>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="n">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
         <v>45550</v>
       </c>
-      <c r="B55" s="4" t="n">
+      <c r="B55" s="4">
         <v>45550</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" t="s">
         <v>18</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" t="s">
         <v>66</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F55" s="2" t="n">
+      <c r="F55" s="2">
         <v>57.5</v>
       </c>
-      <c r="G55" s="2" t="n">
+      <c r="G55" s="2">
         <v>2863.17</v>
       </c>
       <c r="H55" s="2" t="s">
@@ -1884,26 +2147,26 @@
       </c>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="n">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
         <v>45550</v>
       </c>
-      <c r="B56" s="4" t="n">
+      <c r="B56" s="4">
         <v>45551</v>
       </c>
-      <c r="C56" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D56" s="0" t="s">
+      <c r="C56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" t="s">
         <v>67</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F56" s="2" t="n">
+      <c r="F56" s="2">
         <v>315</v>
       </c>
-      <c r="G56" s="2" t="n">
+      <c r="G56" s="2">
         <v>2805.67</v>
       </c>
       <c r="H56" s="2" t="s">
@@ -1914,26 +2177,26 @@
       </c>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="n">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
         <v>45549</v>
       </c>
-      <c r="B57" s="4" t="n">
+      <c r="B57" s="4">
         <v>45551</v>
       </c>
-      <c r="C57" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D57" s="0" t="s">
+      <c r="C57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" t="s">
         <v>30</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F57" s="2" t="n">
+      <c r="F57" s="2">
         <v>22.5</v>
       </c>
-      <c r="G57" s="2" t="n">
+      <c r="G57" s="2">
         <v>2490.67</v>
       </c>
       <c r="H57" s="2" t="s">
@@ -1944,26 +2207,26 @@
       </c>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="n">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
         <v>45549</v>
       </c>
-      <c r="B58" s="4" t="n">
+      <c r="B58" s="4">
         <v>45551</v>
       </c>
-      <c r="C58" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" s="0" t="s">
+      <c r="C58" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" t="s">
         <v>30</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F58" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="G58" s="2" t="n">
+      <c r="F58" s="2">
+        <v>25</v>
+      </c>
+      <c r="G58" s="2">
         <v>2468.17</v>
       </c>
       <c r="H58" s="2" t="s">
@@ -1974,26 +2237,26 @@
       </c>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="n">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
         <v>45549</v>
       </c>
-      <c r="B59" s="4" t="n">
+      <c r="B59" s="4">
         <v>45551</v>
       </c>
-      <c r="C59" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D59" s="0" t="s">
+      <c r="C59" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" t="s">
         <v>68</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F59" s="2" t="n">
+      <c r="F59" s="2">
         <v>32.5</v>
       </c>
-      <c r="G59" s="2" t="n">
+      <c r="G59" s="2">
         <v>2443.17</v>
       </c>
       <c r="H59" s="2" t="s">
@@ -2004,26 +2267,26 @@
       </c>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="n">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
         <v>45548</v>
       </c>
-      <c r="B60" s="4" t="n">
+      <c r="B60" s="4">
         <v>45548</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" t="s">
         <v>18</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" t="s">
         <v>29</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F60" s="2" t="n">
+      <c r="F60" s="2">
         <v>50</v>
       </c>
-      <c r="G60" s="2" t="n">
+      <c r="G60" s="2">
         <v>2410.67</v>
       </c>
       <c r="H60" s="2" t="s">
@@ -2034,26 +2297,26 @@
       </c>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="n">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
         <v>45548</v>
       </c>
-      <c r="B61" s="4" t="n">
+      <c r="B61" s="4">
         <v>45548</v>
       </c>
-      <c r="C61" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D61" s="0" t="s">
+      <c r="C61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" t="s">
         <v>69</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F61" s="2" t="n">
+      <c r="F61" s="2">
         <v>95</v>
       </c>
-      <c r="G61" s="2" t="n">
+      <c r="G61" s="2">
         <v>2360.67</v>
       </c>
       <c r="H61" s="2" t="s">
@@ -2064,26 +2327,26 @@
       </c>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="n">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
         <v>45548</v>
       </c>
-      <c r="B62" s="4" t="n">
+      <c r="B62" s="4">
         <v>45548</v>
       </c>
-      <c r="C62" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D62" s="0" t="s">
+      <c r="C62" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" t="s">
         <v>70</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F62" s="2" t="n">
+      <c r="F62" s="2">
         <v>95</v>
       </c>
-      <c r="G62" s="2" t="n">
+      <c r="G62" s="2">
         <v>2265.67</v>
       </c>
       <c r="H62" s="2" t="s">
@@ -2094,26 +2357,26 @@
       </c>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="n">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
         <v>45547</v>
       </c>
-      <c r="B63" s="4" t="n">
+      <c r="B63" s="4">
         <v>45547</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" t="s">
         <v>18</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" t="s">
         <v>71</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F63" s="2" t="n">
+      <c r="F63" s="2">
         <v>32.5</v>
       </c>
-      <c r="G63" s="2" t="n">
+      <c r="G63" s="2">
         <v>2170.67</v>
       </c>
       <c r="H63" s="2" t="s">
@@ -2124,26 +2387,26 @@
       </c>
       <c r="J63" s="2"/>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="n">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
         <v>45547</v>
       </c>
-      <c r="B64" s="4" t="n">
+      <c r="B64" s="4">
         <v>45547</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" t="s">
         <v>18</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" t="s">
         <v>72</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F64" s="2" t="n">
+      <c r="F64" s="2">
         <v>32.5</v>
       </c>
-      <c r="G64" s="2" t="n">
+      <c r="G64" s="2">
         <v>2138.17</v>
       </c>
       <c r="H64" s="2" t="s">
@@ -2154,26 +2417,26 @@
       </c>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="n">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
         <v>45547</v>
       </c>
-      <c r="B65" s="4" t="n">
+      <c r="B65" s="4">
         <v>45547</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" t="s">
         <v>34</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F65" s="2" t="n">
+      <c r="F65" s="2">
         <v>3.5</v>
       </c>
-      <c r="G65" s="2" t="n">
+      <c r="G65" s="2">
         <v>2105.67</v>
       </c>
       <c r="H65" s="2" t="s">
@@ -2184,26 +2447,26 @@
       </c>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="n">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
         <v>45547</v>
       </c>
-      <c r="B66" s="4" t="n">
+      <c r="B66" s="4">
         <v>45547</v>
       </c>
-      <c r="C66" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D66" s="0" t="s">
+      <c r="C66" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" t="s">
         <v>73</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F66" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="G66" s="2" t="n">
+      <c r="F66" s="2">
+        <v>25</v>
+      </c>
+      <c r="G66" s="2">
         <v>2102.17</v>
       </c>
       <c r="H66" s="2" t="s">
@@ -2214,26 +2477,26 @@
       </c>
       <c r="J66" s="2"/>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="n">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
         <v>45547</v>
       </c>
-      <c r="B67" s="4" t="n">
+      <c r="B67" s="4">
         <v>45547</v>
       </c>
-      <c r="C67" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D67" s="0" t="s">
+      <c r="C67" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" t="s">
         <v>74</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F67" s="2" t="n">
+      <c r="F67" s="2">
         <v>32.5</v>
       </c>
-      <c r="G67" s="2" t="n">
+      <c r="G67" s="2">
         <v>2077.17</v>
       </c>
       <c r="H67" s="2" t="s">
@@ -2244,26 +2507,26 @@
       </c>
       <c r="J67" s="2"/>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4" t="n">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
         <v>45546</v>
       </c>
-      <c r="B68" s="4" t="n">
+      <c r="B68" s="4">
         <v>45546</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" t="s">
         <v>75</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F68" s="2" t="n">
+      <c r="F68" s="2">
         <v>32.5</v>
       </c>
-      <c r="G68" s="2" t="n">
+      <c r="G68" s="2">
         <v>2083.27</v>
       </c>
       <c r="H68" s="2" t="s">
@@ -2276,26 +2539,26 @@
         <v>78</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4" t="n">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
         <v>45546</v>
       </c>
-      <c r="B69" s="4" t="n">
+      <c r="B69" s="4">
         <v>45546</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" t="s">
         <v>18</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" t="s">
         <v>79</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F69" s="2" t="n">
+      <c r="F69" s="2">
         <v>32.5</v>
       </c>
-      <c r="G69" s="2" t="n">
+      <c r="G69" s="2">
         <v>2050.77</v>
       </c>
       <c r="H69" s="2" t="s">
@@ -2306,26 +2569,26 @@
       </c>
       <c r="J69" s="2"/>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4" t="n">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
         <v>45545</v>
       </c>
-      <c r="B70" s="4" t="n">
+      <c r="B70" s="4">
         <v>45545</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" t="s">
         <v>18</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" t="s">
         <v>37</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F70" s="2" t="n">
+      <c r="F70" s="2">
         <v>32.5</v>
       </c>
-      <c r="G70" s="2" t="n">
+      <c r="G70" s="2">
         <v>2018.27</v>
       </c>
       <c r="H70" s="2" t="s">
@@ -2336,97 +2599,37 @@
       </c>
       <c r="J70" s="2"/>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="n">
-        <v>45540</v>
-      </c>
-      <c r="B71" s="4" t="n">
-        <v>45540</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F71" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="G71" s="2" t="n">
-        <v>2113.11</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>22</v>
-      </c>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
       <c r="J71" s="2"/>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4" t="n">
-        <v>45540</v>
-      </c>
-      <c r="B72" s="4" t="n">
-        <v>45540</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F72" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="G72" s="2" t="n">
-        <v>1913.11</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>28</v>
-      </c>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
       <c r="J72" s="2"/>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4" t="n">
-        <v>45539</v>
-      </c>
-      <c r="B73" s="4" t="n">
-        <v>45539</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D73" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F73" s="2" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="G73" s="2" t="n">
-        <v>2155</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>22</v>
-      </c>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
       <c r="J73" s="2"/>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="E74" s="5"/>
@@ -2436,7 +2639,7 @@
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="E75" s="5"/>
@@ -2446,7 +2649,7 @@
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="E76" s="5"/>
@@ -2456,7 +2659,7 @@
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="E77" s="5"/>
@@ -2466,7 +2669,7 @@
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="E78" s="5"/>
@@ -2476,7 +2679,7 @@
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="E79" s="5"/>
@@ -2486,7 +2689,7 @@
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="E80" s="5"/>
@@ -2496,17 +2699,17 @@
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="5"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="E82" s="5"/>
@@ -2516,41 +2719,20 @@
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
